--- a/biology/Botanique/Jardin_Françoise-Héritier/Jardin_Françoise-Héritier.xlsx
+++ b/biology/Botanique/Jardin_Françoise-Héritier/Jardin_Françoise-Héritier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-H%C3%A9ritier</t>
+          <t>Jardin_Françoise-Héritier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Françoise Héritier est un espace vert du 14e arrondissement de Paris, en France. Sa dénomination provisoire était « jardin de la ZAC-Didot » lors de création en 2004.
-Il accueille une aire de jeux et un jardin partagé[1].
+Il accueille une aire de jeux et un jardin partagé.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-H%C3%A9ritier</t>
+          <t>Jardin_Françoise-Héritier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par l'allée du Château-Ouvrier, la place Marcel-Paul et la rue du Moulin-des-Lapins.
 Il est desservi par la ligne 13 à la station Pernety.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-H%C3%A9ritier</t>
+          <t>Jardin_Françoise-Héritier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est créé en 2004. Il est nommé jardin Françoise-Héritier en 2019[2] par délibération du Conseil de Paris[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est créé en 2004. Il est nommé jardin Françoise-Héritier en 2019 par délibération du Conseil de Paris.
 Il rend hommage à la philosophe féministe Françoise Héritier (1933-2017).
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_Fran%C3%A7oise-H%C3%A9ritier</t>
+          <t>Jardin_Françoise-Héritier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arrière du Château ouvrier, construction de 1892 destinée à procurer des logements confortables aux ouvriers, est en bordure du jardin.
 </t>
